--- a/biology/Histoire de la zoologie et de la botanique/John_Forbes_Royle/John_Forbes_Royle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Forbes_Royle/John_Forbes_Royle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Forbes Royle (1799-1858), est un botaniste et professeur en matériel médicinal britannique, né en 1799 à Kanpur (à l'époque Cawnpore) au nord de l'Inde et mort à Acton, dans le district londonien d'Ealing, le 2 janvier 1858.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est entré au service de la Compagnie anglaise des Indes orientales (British East India Company ou BEIC) comme assistant en chirurgie et s'est consacré de lui-même à l'étude de la botanique et de la géologie. C'est dans les montagnes de l'Himalaya qu'il est devenu cueilleur et collecteur, ainsi que sur-intendant, pendant presque dix ans, du jardin botanique  de la BEIC à Saharanpur.
 Il a également fait des recherches sur les propriétés médicinales des plantes de l'Hindoustan (que l'on nomme actuellement Sous-continent indien) et sur l'histoire de leurs usages parmi les peuples autochtones, ce qui lui permit d'écrire un essai intitulé On the Antiquity of Hindu Medicine publié en 1837, après avoir été nommé à la chaire de Materia medica du King's College de Londres où il reste jusqu'en 1856.
